--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/origin.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/origin.xlsx
@@ -408,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,6 +542,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -549,7 +557,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -683,6 +691,14 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>0.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -690,7 +706,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,6 +840,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>3.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -831,7 +855,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,6 +987,14 @@
       </c>
       <c r="B16">
         <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
